--- a/Excel/test_XL.xlsx
+++ b/Excel/test_XL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\카타클리즘_BN\NappingOcean의 모드들!\Py Support Tool\PyCata_XL_to_JSON\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D1ED6-4183-412D-9E7B-803D9F0C11A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCCAA6E-C686-4D24-974B-0DFE90320648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="-3420" windowWidth="11775" windowHeight="16560" xr2:uid="{F2874DB4-9BD3-4C56-A298-9DD50AC3BC7D}"/>
+    <workbookView xWindow="31065" yWindow="-3420" windowWidth="11775" windowHeight="16560" activeTab="1" xr2:uid="{F2874DB4-9BD3-4C56-A298-9DD50AC3BC7D}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERIC" sheetId="5" r:id="rId1"/>
@@ -654,11 +654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5597971-5CDE-448B-AFF0-117442E1537E}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -868,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA907E-51ED-4401-85E2-B28FA7DE5589}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="G8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
